--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_2_bus_ward34_solid.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_2_bus_ward34_solid.xlsx
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9380319009541902</v>
+        <v>0.9380319009554192</v>
       </c>
       <c r="G2">
-        <v>-1.130199522048309</v>
+        <v>-1.130199521952451</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2917056037370233</v>
+        <v>0.2917056037382961</v>
       </c>
       <c r="G3">
-        <v>-29.1713773573014</v>
+        <v>-29.1713773552604</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -575,22 +575,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>36.10160952954078</v>
+        <v>4.282962610288488</v>
       </c>
       <c r="C4">
-        <v>1250.596438803547</v>
+        <v>148.3661769587496</v>
       </c>
       <c r="D4">
-        <v>0.216979414382802</v>
+        <v>0.6277319163354135</v>
       </c>
       <c r="E4">
-        <v>0.2769580867739114</v>
+        <v>2.898438697960064</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>51.92351147239496</v>
+        <v>77.77984578051343</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023399169</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.926842697491583E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023399169</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.926842697491582E-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.070094227534568</v>
+        <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009576223</v>
+        <v>0.9380319009574459</v>
       </c>
       <c r="P2">
-        <v>1.053494350469732</v>
+        <v>1.053494350468705</v>
       </c>
       <c r="Q2">
-        <v>25.98965116736209</v>
+        <v>25.98965116739708</v>
       </c>
       <c r="R2">
-        <v>-91.13019952207824</v>
+        <v>-91.13019952201601</v>
       </c>
       <c r="S2">
-        <v>153.5693903185904</v>
+        <v>153.5693903185486</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214682102</v>
+        <v>1.031611214669993</v>
       </c>
       <c r="O3">
-        <v>0.2917056037548506</v>
+        <v>0.2917056037512943</v>
       </c>
       <c r="P3">
-        <v>0.8906876332707027</v>
+        <v>0.8906876332644384</v>
       </c>
       <c r="Q3">
-        <v>7.091324389127895</v>
+        <v>7.091324389062571</v>
       </c>
       <c r="R3">
-        <v>-119.171377355886</v>
+        <v>-119.1713773550799</v>
       </c>
       <c r="S3">
-        <v>171.779472772821</v>
+        <v>171.7794727726615</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -837,55 +837,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>31.26491097024306</v>
+        <v>3.709154423937068</v>
       </c>
       <c r="D4">
-        <v>31.26491097024306</v>
+        <v>3.709154423937068</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>361.0160952971904</v>
+        <v>42.82962610251915</v>
       </c>
       <c r="G4">
-        <v>361.0160952971904</v>
+        <v>42.82962610251915</v>
       </c>
       <c r="H4">
-        <v>1.849825689567638</v>
+        <v>1.849825689567629</v>
       </c>
       <c r="I4">
-        <v>0.732530936575767</v>
+        <v>0.732530936575931</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802832</v>
+        <v>0.6277319163571242</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680181</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834054</v>
+        <v>0.6277319163639643</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738893</v>
+        <v>2.89843869796001</v>
       </c>
       <c r="N4">
-        <v>0.9526279648187987</v>
+        <v>0.9526279648032093</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648133816</v>
+        <v>0.9526279648047558</v>
       </c>
       <c r="Q4">
-        <v>3.814838422852569E-11</v>
+        <v>-1.248114331727743E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999466</v>
+        <v>-179.9999999999812</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023905193</v>
+        <v>0.9526279647942855</v>
       </c>
       <c r="O5">
-        <v>1.100000023430216</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023584827</v>
+        <v>0.9526279648136793</v>
       </c>
       <c r="Q5">
-        <v>29.99999998571504</v>
+        <v>4.605593154684335E-10</v>
       </c>
       <c r="R5">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000046434</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023905193</v>
+        <v>0.9526279647942855</v>
       </c>
       <c r="O6">
-        <v>1.100000023430216</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023584827</v>
+        <v>0.9526279648136793</v>
       </c>
       <c r="Q6">
-        <v>29.99999998571504</v>
+        <v>4.605749183559953E-10</v>
       </c>
       <c r="R6">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000046434</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097838404996317</v>
+        <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.08559289172556</v>
+        <v>1.029837663667628</v>
       </c>
       <c r="P2">
-        <v>1.094991725299649</v>
+        <v>1.068709665745342</v>
       </c>
       <c r="Q2">
-        <v>29.63155435916665</v>
+        <v>27.98323699101546</v>
       </c>
       <c r="R2">
-        <v>-90.17292053581582</v>
+        <v>-91.78162348160745</v>
       </c>
       <c r="S2">
-        <v>150.2836841037938</v>
+        <v>151.2113112851477</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.091158476804674</v>
+        <v>1.109634423210918</v>
       </c>
       <c r="O3">
-        <v>1.02554313000662</v>
+        <v>0.7617779018710721</v>
       </c>
       <c r="P3">
-        <v>1.072493642371867</v>
+        <v>0.9348070984869523</v>
       </c>
       <c r="Q3">
-        <v>28.02344309136546</v>
+        <v>19.43181595267038</v>
       </c>
       <c r="R3">
-        <v>-91.18428950885611</v>
+        <v>-104.2565908665021</v>
       </c>
       <c r="S3">
-        <v>151.4445273957811</v>
+        <v>156.7400468039737</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1204,55 +1204,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.831379598175043</v>
+        <v>1.763086650675505</v>
       </c>
       <c r="D4">
-        <v>2.831379598175043</v>
+        <v>1.763086650675505</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.69395546368752</v>
+        <v>20.35837104744277</v>
       </c>
       <c r="G4">
-        <v>32.69395546368752</v>
+        <v>20.35837104744277</v>
       </c>
       <c r="H4">
-        <v>1.849825689567638</v>
+        <v>1.849825689567629</v>
       </c>
       <c r="I4">
-        <v>0.732530936575767</v>
+        <v>0.732530936575931</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802832</v>
+        <v>0.6277319163571242</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680181</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834054</v>
+        <v>0.6277319163639643</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738893</v>
+        <v>2.89843869796001</v>
       </c>
       <c r="N4">
-        <v>1.080940586160005</v>
+        <v>1.075852895209833</v>
       </c>
       <c r="O4">
-        <v>1.0010438569914</v>
+        <v>0.6233452632551815</v>
       </c>
       <c r="P4">
-        <v>1.07126650730899</v>
+        <v>0.9229411060011536</v>
       </c>
       <c r="Q4">
-        <v>27.58185552355448</v>
+        <v>16.25665454943076</v>
       </c>
       <c r="R4">
-        <v>-90.62548732469494</v>
+        <v>-104.9129785376843</v>
       </c>
       <c r="S4">
-        <v>152.1475228588321</v>
+        <v>160.9543898286496</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023850213</v>
+        <v>1.075852895205487</v>
       </c>
       <c r="O5">
-        <v>1.100000023808408</v>
+        <v>0.6233452632568746</v>
       </c>
       <c r="P5">
-        <v>1.100000023817764</v>
+        <v>0.9229411060067905</v>
       </c>
       <c r="Q5">
-        <v>29.99999999874164</v>
+        <v>16.25665454962342</v>
       </c>
       <c r="R5">
-        <v>-90.00000000194798</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S5">
-        <v>150.0000000002753</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023850213</v>
+        <v>1.075852895205487</v>
       </c>
       <c r="O6">
-        <v>1.100000023808408</v>
+        <v>0.6233452632568746</v>
       </c>
       <c r="P6">
-        <v>1.100000023817764</v>
+        <v>0.9229411060067906</v>
       </c>
       <c r="Q6">
-        <v>29.99999999874164</v>
+        <v>16.25665454962342</v>
       </c>
       <c r="R6">
-        <v>-90.00000000194798</v>
+        <v>-104.9129785366566</v>
       </c>
       <c r="S6">
-        <v>150.0000000002753</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097838404996317</v>
+        <v>1.09687854193859</v>
       </c>
       <c r="O2">
-        <v>1.08559289172556</v>
+        <v>1.029837663667628</v>
       </c>
       <c r="P2">
-        <v>1.094991725299649</v>
+        <v>1.068709665745342</v>
       </c>
       <c r="Q2">
-        <v>29.63155435916665</v>
+        <v>27.98323699101546</v>
       </c>
       <c r="R2">
-        <v>-90.17292053581582</v>
+        <v>-91.78162348160745</v>
       </c>
       <c r="S2">
-        <v>150.2836841037938</v>
+        <v>151.2113112851477</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.091158476804674</v>
+        <v>1.109634423210918</v>
       </c>
       <c r="O3">
-        <v>1.02554313000662</v>
+        <v>0.7617779018710721</v>
       </c>
       <c r="P3">
-        <v>1.072493642371867</v>
+        <v>0.9348070984869523</v>
       </c>
       <c r="Q3">
-        <v>28.02344309136546</v>
+        <v>19.43181595267038</v>
       </c>
       <c r="R3">
-        <v>-91.18428950885611</v>
+        <v>-104.2565908665021</v>
       </c>
       <c r="S3">
-        <v>151.4445273957811</v>
+        <v>156.7400468039737</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1571,55 +1571,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.831379598175043</v>
+        <v>1.763086650675505</v>
       </c>
       <c r="D4">
-        <v>2.831379598175043</v>
+        <v>1.763086650675505</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.69395546368752</v>
+        <v>20.35837104744277</v>
       </c>
       <c r="G4">
-        <v>32.69395546368752</v>
+        <v>20.35837104744277</v>
       </c>
       <c r="H4">
-        <v>1.849825689567638</v>
+        <v>1.849825689567629</v>
       </c>
       <c r="I4">
-        <v>0.732530936575767</v>
+        <v>0.732530936575931</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802832</v>
+        <v>0.6277319163571242</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680181</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834054</v>
+        <v>0.6277319163639643</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738893</v>
+        <v>2.89843869796001</v>
       </c>
       <c r="N4">
-        <v>1.080940586160005</v>
+        <v>1.075852895209833</v>
       </c>
       <c r="O4">
-        <v>1.0010438569914</v>
+        <v>0.6233452632551815</v>
       </c>
       <c r="P4">
-        <v>1.07126650730899</v>
+        <v>0.9229411060011536</v>
       </c>
       <c r="Q4">
-        <v>27.58185552355448</v>
+        <v>16.25665454943076</v>
       </c>
       <c r="R4">
-        <v>-90.62548732469494</v>
+        <v>-104.9129785376843</v>
       </c>
       <c r="S4">
-        <v>152.1475228588321</v>
+        <v>160.9543898286496</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023850213</v>
+        <v>1.075852895205487</v>
       </c>
       <c r="O5">
-        <v>1.100000023808408</v>
+        <v>0.6233452632568746</v>
       </c>
       <c r="P5">
-        <v>1.100000023817764</v>
+        <v>0.9229411060067905</v>
       </c>
       <c r="Q5">
-        <v>29.99999999874164</v>
+        <v>16.25665454962342</v>
       </c>
       <c r="R5">
-        <v>-90.00000000194798</v>
+        <v>-104.9129785366567</v>
       </c>
       <c r="S5">
-        <v>150.0000000002753</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023850213</v>
+        <v>1.075852895205487</v>
       </c>
       <c r="O6">
-        <v>1.100000023808408</v>
+        <v>0.6233452632568746</v>
       </c>
       <c r="P6">
-        <v>1.100000023817764</v>
+        <v>0.9229411060067906</v>
       </c>
       <c r="Q6">
-        <v>29.99999999874164</v>
+        <v>16.25665454962342</v>
       </c>
       <c r="R6">
-        <v>-90.00000000194798</v>
+        <v>-104.9129785366566</v>
       </c>
       <c r="S6">
-        <v>150.0000000002753</v>
+        <v>160.9543898286222</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591991616</v>
+        <v>0.9821968591989456</v>
       </c>
       <c r="O2">
-        <v>0.8500049525411363</v>
+        <v>0.850004952541402</v>
       </c>
       <c r="P2">
-        <v>0.9468598309451901</v>
+        <v>0.9468598309457216</v>
       </c>
       <c r="Q2">
-        <v>25.60992326807018</v>
+        <v>25.60992326808851</v>
       </c>
       <c r="R2">
-        <v>-92.65381631337448</v>
+        <v>-92.65381631331513</v>
       </c>
       <c r="S2">
-        <v>153.3606354236727</v>
+        <v>153.3606354236809</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401385893</v>
+        <v>0.9900703401370795</v>
       </c>
       <c r="O3">
-        <v>0.3617201835047232</v>
+        <v>0.3617201835030117</v>
       </c>
       <c r="P3">
-        <v>0.7649715466384562</v>
+        <v>0.764971546641112</v>
       </c>
       <c r="Q3">
-        <v>8.150888684213083</v>
+        <v>8.150888684274419</v>
       </c>
       <c r="R3">
-        <v>-129.0915432248399</v>
+        <v>-129.0915432241893</v>
       </c>
       <c r="S3">
-        <v>169.4262793833598</v>
+        <v>169.4262793833645</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1938,55 +1938,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>19.76479395610248</v>
+        <v>3.119085825515528</v>
       </c>
       <c r="D4">
-        <v>19.76479395610248</v>
+        <v>3.119085825515528</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>228.2241822206651</v>
+        <v>36.01610081973872</v>
       </c>
       <c r="G4">
-        <v>228.2241822206651</v>
+        <v>36.01610081973872</v>
       </c>
       <c r="H4">
-        <v>3.551638344487421</v>
+        <v>3.551638344487405</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262993</v>
+        <v>0.7246530378264696</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376318</v>
+        <v>1.11375188024619</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581894</v>
+        <v>3.006397543768196</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391402</v>
+        <v>1.113751880233262</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637073</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>0.8660254037897491</v>
+        <v>0.866025403788006</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037851927</v>
+        <v>0.8660254037883343</v>
       </c>
       <c r="Q4">
-        <v>5.886386492260419E-11</v>
+        <v>1.722591139129123E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999999245</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000088091</v>
+        <v>0.8660254037798931</v>
       </c>
       <c r="O5">
-        <v>0.9999999998279021</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999998309299</v>
+        <v>0.8660254037964465</v>
       </c>
       <c r="Q5">
-        <v>29.99999999139182</v>
+        <v>1.080486209699495E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000000941</v>
+        <v>179.9999999989112</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000088091</v>
+        <v>0.8660254037798931</v>
       </c>
       <c r="O6">
-        <v>0.9999999998279021</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999998309299</v>
+        <v>0.8660254037964464</v>
       </c>
       <c r="Q6">
-        <v>29.99999999139182</v>
+        <v>1.080487056881271E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000000941</v>
+        <v>179.9999999989112</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9821968591991616</v>
+        <v>0.9821968591989456</v>
       </c>
       <c r="O2">
-        <v>0.8500049525411363</v>
+        <v>0.850004952541402</v>
       </c>
       <c r="P2">
-        <v>0.9468598309451901</v>
+        <v>0.9468598309457216</v>
       </c>
       <c r="Q2">
-        <v>25.60992326807018</v>
+        <v>25.60992326808851</v>
       </c>
       <c r="R2">
-        <v>-92.65381631337448</v>
+        <v>-92.65381631331513</v>
       </c>
       <c r="S2">
-        <v>153.3606354236727</v>
+        <v>153.3606354236809</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9900703401385893</v>
+        <v>0.9900703401370795</v>
       </c>
       <c r="O3">
-        <v>0.3617201835047232</v>
+        <v>0.3617201835030117</v>
       </c>
       <c r="P3">
-        <v>0.7649715466384562</v>
+        <v>0.764971546641112</v>
       </c>
       <c r="Q3">
-        <v>8.150888684213083</v>
+        <v>8.150888684274419</v>
       </c>
       <c r="R3">
-        <v>-129.0915432248399</v>
+        <v>-129.0915432241893</v>
       </c>
       <c r="S3">
-        <v>169.4262793833598</v>
+        <v>169.4262793833645</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2305,55 +2305,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>19.76479395610248</v>
+        <v>3.119085825515528</v>
       </c>
       <c r="D4">
-        <v>19.76479395610248</v>
+        <v>3.119085825515528</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>228.2241822206651</v>
+        <v>36.01610081973872</v>
       </c>
       <c r="G4">
-        <v>228.2241822206651</v>
+        <v>36.01610081973872</v>
       </c>
       <c r="H4">
-        <v>3.551638344487421</v>
+        <v>3.551638344487405</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262993</v>
+        <v>0.7246530378264696</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376318</v>
+        <v>1.11375188024619</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581894</v>
+        <v>3.006397543768196</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391402</v>
+        <v>1.113751880233262</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637073</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>0.8660254037897491</v>
+        <v>0.866025403788006</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254037851927</v>
+        <v>0.8660254037883343</v>
       </c>
       <c r="Q4">
-        <v>5.886386492260419E-11</v>
+        <v>1.722591139129123E-10</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999999245</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000088091</v>
+        <v>0.8660254037798931</v>
       </c>
       <c r="O5">
-        <v>0.9999999998279021</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999998309299</v>
+        <v>0.8660254037964465</v>
       </c>
       <c r="Q5">
-        <v>29.99999999139182</v>
+        <v>1.080486209699495E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000000941</v>
+        <v>179.9999999989112</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000088091</v>
+        <v>0.8660254037798931</v>
       </c>
       <c r="O6">
-        <v>0.9999999998279021</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999998309299</v>
+        <v>0.8660254037964464</v>
       </c>
       <c r="Q6">
-        <v>29.99999999139182</v>
+        <v>1.080487056881271E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000000941</v>
+        <v>179.9999999989112</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9962209285661211</v>
+        <v>0.9991077190359253</v>
       </c>
       <c r="O2">
-        <v>0.9805999568831073</v>
+        <v>0.9333641900095898</v>
       </c>
       <c r="P2">
-        <v>0.9941488818114279</v>
+        <v>0.9681777323222119</v>
       </c>
       <c r="Q2">
-        <v>29.48254823110301</v>
+        <v>27.8246974452445</v>
       </c>
       <c r="R2">
-        <v>-90.13912458714363</v>
+        <v>-92.15705182751171</v>
       </c>
       <c r="S2">
-        <v>150.4499136536905</v>
+        <v>151.2048467246548</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9848080577388958</v>
+        <v>1.018434506766488</v>
       </c>
       <c r="O3">
-        <v>0.9069959046459487</v>
+        <v>0.7086876959566594</v>
       </c>
       <c r="P3">
-        <v>0.9702957667309946</v>
+        <v>0.8449321159941326</v>
       </c>
       <c r="Q3">
-        <v>27.4141245406182</v>
+        <v>19.61176266474866</v>
       </c>
       <c r="R3">
-        <v>-91.03487071282137</v>
+        <v>-105.2709110729077</v>
       </c>
       <c r="S3">
-        <v>152.140505481155</v>
+        <v>156.1359474819764</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2672,55 +2672,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.477468452058455</v>
+        <v>1.518298439092604</v>
       </c>
       <c r="D4">
-        <v>2.477468452058455</v>
+        <v>1.518298439092604</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.60734155409509</v>
+        <v>17.53180025040607</v>
       </c>
       <c r="G4">
-        <v>28.60734155409509</v>
+        <v>17.53180025040607</v>
       </c>
       <c r="H4">
-        <v>3.551638344487421</v>
+        <v>3.551638344487405</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262993</v>
+        <v>0.7246530378264696</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376318</v>
+        <v>1.11375188024619</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581894</v>
+        <v>3.006397543768196</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391402</v>
+        <v>1.113751880233262</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637073</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>0.9630221127912729</v>
+        <v>0.9573399675119605</v>
       </c>
       <c r="O4">
-        <v>0.8759173713133417</v>
+        <v>0.5367995610775461</v>
       </c>
       <c r="P4">
-        <v>0.977856856068785</v>
+        <v>0.8529812840863316</v>
       </c>
       <c r="Q4">
-        <v>27.04520942853439</v>
+        <v>15.93288697155591</v>
       </c>
       <c r="R4">
-        <v>-88.91256469632604</v>
+        <v>-101.7238138495564</v>
       </c>
       <c r="S4">
-        <v>153.3976727388728</v>
+        <v>162.0554462537874</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000008542</v>
+        <v>0.9573399675083648</v>
       </c>
       <c r="O5">
-        <v>0.9999999999737773</v>
+        <v>0.536799561086394</v>
       </c>
       <c r="P5">
-        <v>0.9999999999791188</v>
+        <v>0.8529812840931512</v>
       </c>
       <c r="Q5">
-        <v>29.99999999884877</v>
+        <v>15.93288697196761</v>
       </c>
       <c r="R5">
-        <v>-90.00000000194301</v>
+        <v>-101.7238138481949</v>
       </c>
       <c r="S5">
-        <v>150.0000000001706</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000008542</v>
+        <v>0.9573399675083649</v>
       </c>
       <c r="O6">
-        <v>0.9999999999737773</v>
+        <v>0.5367995610863942</v>
       </c>
       <c r="P6">
-        <v>0.9999999999791188</v>
+        <v>0.8529812840931512</v>
       </c>
       <c r="Q6">
-        <v>29.99999999884877</v>
+        <v>15.93288697196761</v>
       </c>
       <c r="R6">
-        <v>-90.00000000194301</v>
+        <v>-101.7238138481949</v>
       </c>
       <c r="S6">
-        <v>150.0000000001706</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9962209285661211</v>
+        <v>0.9991077190359253</v>
       </c>
       <c r="O2">
-        <v>0.9805999568831073</v>
+        <v>0.9333641900095898</v>
       </c>
       <c r="P2">
-        <v>0.9941488818114279</v>
+        <v>0.9681777323222119</v>
       </c>
       <c r="Q2">
-        <v>29.48254823110301</v>
+        <v>27.8246974452445</v>
       </c>
       <c r="R2">
-        <v>-90.13912458714363</v>
+        <v>-92.15705182751171</v>
       </c>
       <c r="S2">
-        <v>150.4499136536905</v>
+        <v>151.2048467246548</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9848080577388958</v>
+        <v>1.018434506766488</v>
       </c>
       <c r="O3">
-        <v>0.9069959046459487</v>
+        <v>0.7086876959566594</v>
       </c>
       <c r="P3">
-        <v>0.9702957667309946</v>
+        <v>0.8449321159941326</v>
       </c>
       <c r="Q3">
-        <v>27.4141245406182</v>
+        <v>19.61176266474866</v>
       </c>
       <c r="R3">
-        <v>-91.03487071282137</v>
+        <v>-105.2709110729077</v>
       </c>
       <c r="S3">
-        <v>152.140505481155</v>
+        <v>156.1359474819764</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3039,55 +3039,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.477468452058455</v>
+        <v>1.518298439092604</v>
       </c>
       <c r="D4">
-        <v>2.477468452058455</v>
+        <v>1.518298439092604</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.60734155409509</v>
+        <v>17.53180025040607</v>
       </c>
       <c r="G4">
-        <v>28.60734155409509</v>
+        <v>17.53180025040607</v>
       </c>
       <c r="H4">
-        <v>3.551638344487421</v>
+        <v>3.551638344487405</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262993</v>
+        <v>0.7246530378264696</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376318</v>
+        <v>1.11375188024619</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581894</v>
+        <v>3.006397543768196</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391402</v>
+        <v>1.113751880233262</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637073</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>0.9630221127912729</v>
+        <v>0.9573399675119605</v>
       </c>
       <c r="O4">
-        <v>0.8759173713133417</v>
+        <v>0.5367995610775461</v>
       </c>
       <c r="P4">
-        <v>0.977856856068785</v>
+        <v>0.8529812840863316</v>
       </c>
       <c r="Q4">
-        <v>27.04520942853439</v>
+        <v>15.93288697155591</v>
       </c>
       <c r="R4">
-        <v>-88.91256469632604</v>
+        <v>-101.7238138495564</v>
       </c>
       <c r="S4">
-        <v>153.3976727388728</v>
+        <v>162.0554462537874</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000008542</v>
+        <v>0.9573399675083648</v>
       </c>
       <c r="O5">
-        <v>0.9999999999737773</v>
+        <v>0.536799561086394</v>
       </c>
       <c r="P5">
-        <v>0.9999999999791188</v>
+        <v>0.8529812840931512</v>
       </c>
       <c r="Q5">
-        <v>29.99999999884877</v>
+        <v>15.93288697196761</v>
       </c>
       <c r="R5">
-        <v>-90.00000000194301</v>
+        <v>-101.7238138481949</v>
       </c>
       <c r="S5">
-        <v>150.0000000001706</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000008542</v>
+        <v>0.9573399675083649</v>
       </c>
       <c r="O6">
-        <v>0.9999999999737773</v>
+        <v>0.5367995610863942</v>
       </c>
       <c r="P6">
-        <v>0.9999999999791188</v>
+        <v>0.8529812840931512</v>
       </c>
       <c r="Q6">
-        <v>29.99999999884877</v>
+        <v>15.93288697196761</v>
       </c>
       <c r="R6">
-        <v>-90.00000000194301</v>
+        <v>-101.7238138481949</v>
       </c>
       <c r="S6">
-        <v>150.0000000001706</v>
+        <v>162.0554462535384</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.062063044253549</v>
+        <v>0.9861308108586488</v>
       </c>
       <c r="O2">
-        <v>1.100000023842654</v>
+        <v>1.100000023847538</v>
       </c>
       <c r="P2">
-        <v>1.080971079745456</v>
+        <v>1.028855199037968</v>
       </c>
       <c r="Q2">
-        <v>30.03427046701902</v>
+        <v>31.20178199995175</v>
       </c>
       <c r="R2">
-        <v>-90.00000000000669</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S2">
-        <v>148.2751526377006</v>
+        <v>145.0676635123766</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9008801589637838</v>
+        <v>0.5017839789834517</v>
       </c>
       <c r="O3">
-        <v>1.100000023839713</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P3">
-        <v>1.021970909657364</v>
+        <v>0.8775850755570963</v>
       </c>
       <c r="Q3">
-        <v>29.54014509746226</v>
+        <v>38.79388502419474</v>
       </c>
       <c r="R3">
-        <v>-90.00000000006877</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S3">
-        <v>140.0785644089484</v>
+        <v>116.464719448601</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>14.53735578908807</v>
+        <v>5.270261429553176</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>167.8629255627072</v>
+        <v>60.85573710104457</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3430,43 +3430,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567651</v>
+        <v>1.849825689567652</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757673</v>
+        <v>0.7325309365756874</v>
       </c>
       <c r="J4">
-        <v>0.2169794143801473</v>
+        <v>0.6277319162686231</v>
       </c>
       <c r="K4">
-        <v>0.2769580867743545</v>
+        <v>2.898438697960065</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834472</v>
+        <v>0.6277319163639914</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738874</v>
+        <v>2.898438697959884</v>
       </c>
       <c r="N4">
-        <v>0.8470868655374661</v>
+        <v>0.4179741834732571</v>
       </c>
       <c r="O4">
-        <v>1.100000023837804</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P4">
-        <v>0.9659932693635052</v>
+        <v>0.7534809345991498</v>
       </c>
       <c r="Q4">
-        <v>32.24905218090448</v>
+        <v>62.67922138001563</v>
       </c>
       <c r="R4">
-        <v>-90.00000000002011</v>
+        <v>-89.99999999999662</v>
       </c>
       <c r="S4">
-        <v>137.8707015090701</v>
+        <v>104.7500506116008</v>
       </c>
       <c r="T4">
-        <v>14.53735578908807</v>
+        <v>5.270261429553176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023728917</v>
+        <v>0.4179741834901597</v>
       </c>
       <c r="O5">
-        <v>1.100000023836849</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P5">
-        <v>1.100000023845747</v>
+        <v>0.753480934586775</v>
       </c>
       <c r="Q5">
-        <v>29.99999999621783</v>
+        <v>62.67922137998018</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999968</v>
       </c>
       <c r="S5">
-        <v>149.9999999932348</v>
+        <v>104.7500506124763</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023728917</v>
+        <v>0.4179741834901597</v>
       </c>
       <c r="O6">
-        <v>1.100000023836849</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P6">
-        <v>1.100000023845747</v>
+        <v>0.7534809345867751</v>
       </c>
       <c r="Q6">
-        <v>29.99999999621783</v>
+        <v>62.67922137998018</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999968</v>
       </c>
       <c r="S6">
-        <v>149.9999999932348</v>
+        <v>104.7500506124763</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.062063044253549</v>
+        <v>0.9861308108586488</v>
       </c>
       <c r="O2">
-        <v>1.100000023842654</v>
+        <v>1.100000023847538</v>
       </c>
       <c r="P2">
-        <v>1.080971079745456</v>
+        <v>1.028855199037968</v>
       </c>
       <c r="Q2">
-        <v>30.03427046701902</v>
+        <v>31.20178199995175</v>
       </c>
       <c r="R2">
-        <v>-90.00000000000669</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S2">
-        <v>148.2751526377006</v>
+        <v>145.0676635123766</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9008801589637838</v>
+        <v>0.5017839789834517</v>
       </c>
       <c r="O3">
-        <v>1.100000023839713</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P3">
-        <v>1.021970909657364</v>
+        <v>0.8775850755570963</v>
       </c>
       <c r="Q3">
-        <v>29.54014509746226</v>
+        <v>38.79388502419474</v>
       </c>
       <c r="R3">
-        <v>-90.00000000006877</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S3">
-        <v>140.0785644089484</v>
+        <v>116.464719448601</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>14.53735578908807</v>
+        <v>5.270261429553176</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>167.8629255627072</v>
+        <v>60.85573710104457</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3815,43 +3815,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567651</v>
+        <v>1.849825689567652</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757673</v>
+        <v>0.7325309365756874</v>
       </c>
       <c r="J4">
-        <v>0.2169794143801473</v>
+        <v>0.6277319162686231</v>
       </c>
       <c r="K4">
-        <v>0.2769580867743545</v>
+        <v>2.898438697960065</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834472</v>
+        <v>0.6277319163639914</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738874</v>
+        <v>2.898438697959884</v>
       </c>
       <c r="N4">
-        <v>0.8470868655374661</v>
+        <v>0.4179741834732571</v>
       </c>
       <c r="O4">
-        <v>1.100000023837804</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P4">
-        <v>0.9659932693635052</v>
+        <v>0.7534809345991498</v>
       </c>
       <c r="Q4">
-        <v>32.24905218090448</v>
+        <v>62.67922138001563</v>
       </c>
       <c r="R4">
-        <v>-90.00000000002011</v>
+        <v>-89.99999999999662</v>
       </c>
       <c r="S4">
-        <v>137.8707015090701</v>
+        <v>104.7500506116008</v>
       </c>
       <c r="T4">
-        <v>14.53735578908807</v>
+        <v>5.270261429553176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023728917</v>
+        <v>0.4179741834901597</v>
       </c>
       <c r="O5">
-        <v>1.100000023836849</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P5">
-        <v>1.100000023845747</v>
+        <v>0.753480934586775</v>
       </c>
       <c r="Q5">
-        <v>29.99999999621783</v>
+        <v>62.67922137998018</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999968</v>
       </c>
       <c r="S5">
-        <v>149.9999999932348</v>
+        <v>104.7500506124763</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023728917</v>
+        <v>0.4179741834901597</v>
       </c>
       <c r="O6">
-        <v>1.100000023836849</v>
+        <v>1.100000023852248</v>
       </c>
       <c r="P6">
-        <v>1.100000023845747</v>
+        <v>0.7534809345867751</v>
       </c>
       <c r="Q6">
-        <v>29.99999999621783</v>
+        <v>62.67922137998018</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999968</v>
       </c>
       <c r="S6">
-        <v>149.9999999932348</v>
+        <v>104.7500506124763</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.095952844084183</v>
+        <v>1.070287335385026</v>
       </c>
       <c r="O2">
-        <v>1.100000023841902</v>
+        <v>1.100000023843436</v>
       </c>
       <c r="P2">
-        <v>1.09704974450046</v>
+        <v>1.087432713371585</v>
       </c>
       <c r="Q2">
-        <v>30.05616804931108</v>
+        <v>29.87894597690854</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999771</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.8449778415018</v>
+        <v>148.5843831011227</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.078481005501112</v>
+        <v>0.94499511013698</v>
       </c>
       <c r="O3">
-        <v>1.100000023841407</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P3">
-        <v>1.085455543753163</v>
+        <v>1.049816937116054</v>
       </c>
       <c r="Q3">
-        <v>30.23949248178319</v>
+        <v>28.77922907069107</v>
       </c>
       <c r="R3">
-        <v>-90.0000000000058</v>
+        <v>-89.99999999999649</v>
       </c>
       <c r="S3">
-        <v>149.1348106225964</v>
+        <v>142.0890444401773</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.604546852214283</v>
+        <v>1.354590696141221</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.52771114106567</v>
+        <v>15.64146606117793</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4200,43 +4200,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567651</v>
+        <v>1.849825689567652</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757673</v>
+        <v>0.7325309365756874</v>
       </c>
       <c r="J4">
-        <v>0.2169794143801473</v>
+        <v>0.6277319162686231</v>
       </c>
       <c r="K4">
-        <v>0.2769580867743545</v>
+        <v>2.898438697960065</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834472</v>
+        <v>0.6277319163639914</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738874</v>
+        <v>2.898438697959884</v>
       </c>
       <c r="N4">
-        <v>1.073764278488292</v>
+        <v>0.8993131324624146</v>
       </c>
       <c r="O4">
-        <v>1.100000023841158</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P4">
-        <v>1.078092134544782</v>
+        <v>1.00754439640636</v>
       </c>
       <c r="Q4">
-        <v>30.54895474277178</v>
+        <v>30.48183270043303</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999946</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S4">
-        <v>149.063551183147</v>
+        <v>140.283523874082</v>
       </c>
       <c r="T4">
-        <v>1.604546852214283</v>
+        <v>1.354590696141221</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023827544</v>
+        <v>0.8993131324654359</v>
       </c>
       <c r="O5">
-        <v>1.100000023841033</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P5">
-        <v>1.100000023838544</v>
+        <v>1.007544396404445</v>
       </c>
       <c r="Q5">
-        <v>29.99999999974282</v>
+        <v>30.48183270063193</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999656</v>
       </c>
       <c r="S5">
-        <v>149.9999999992575</v>
+        <v>140.2835238743037</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023827544</v>
+        <v>0.8993131324654358</v>
       </c>
       <c r="O6">
-        <v>1.100000023841033</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P6">
-        <v>1.100000023838544</v>
+        <v>1.007544396404445</v>
       </c>
       <c r="Q6">
-        <v>29.99999999974282</v>
+        <v>30.48183270063194</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999656</v>
       </c>
       <c r="S6">
-        <v>149.9999999992575</v>
+        <v>140.2835238743037</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9380319009541902</v>
+        <v>0.9380319009554192</v>
       </c>
       <c r="G2">
-        <v>-1.130199522048309</v>
+        <v>-1.130199521952451</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2917056037370233</v>
+        <v>0.2917056037382961</v>
       </c>
       <c r="G3">
-        <v>-29.1713773573014</v>
+        <v>-29.1713773552604</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4450,22 +4450,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>36.10160952954078</v>
+        <v>4.282962610288488</v>
       </c>
       <c r="C4">
-        <v>1250.596438803547</v>
+        <v>148.3661769587496</v>
       </c>
       <c r="D4">
-        <v>0.216979414382802</v>
+        <v>0.6277319163354135</v>
       </c>
       <c r="E4">
-        <v>0.2769580867739114</v>
+        <v>2.898438697960064</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>51.92351147239496</v>
+        <v>77.77984578051343</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023399169</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.926842697491583E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023399169</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.926842697491582E-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.095952844084183</v>
+        <v>1.070287335385026</v>
       </c>
       <c r="O2">
-        <v>1.100000023841902</v>
+        <v>1.100000023843436</v>
       </c>
       <c r="P2">
-        <v>1.09704974450046</v>
+        <v>1.087432713371585</v>
       </c>
       <c r="Q2">
-        <v>30.05616804931108</v>
+        <v>29.87894597690854</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999771</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.8449778415018</v>
+        <v>148.5843831011227</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.078481005501112</v>
+        <v>0.94499511013698</v>
       </c>
       <c r="O3">
-        <v>1.100000023841407</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P3">
-        <v>1.085455543753163</v>
+        <v>1.049816937116054</v>
       </c>
       <c r="Q3">
-        <v>30.23949248178319</v>
+        <v>28.77922907069107</v>
       </c>
       <c r="R3">
-        <v>-90.0000000000058</v>
+        <v>-89.99999999999649</v>
       </c>
       <c r="S3">
-        <v>149.1348106225964</v>
+        <v>142.0890444401773</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.604546852214283</v>
+        <v>1.354590696141221</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.52771114106567</v>
+        <v>15.64146606117793</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4736,43 +4736,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.849825689567651</v>
+        <v>1.849825689567652</v>
       </c>
       <c r="I4">
-        <v>0.7325309365757673</v>
+        <v>0.7325309365756874</v>
       </c>
       <c r="J4">
-        <v>0.2169794143801473</v>
+        <v>0.6277319162686231</v>
       </c>
       <c r="K4">
-        <v>0.2769580867743545</v>
+        <v>2.898438697960065</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834472</v>
+        <v>0.6277319163639914</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738874</v>
+        <v>2.898438697959884</v>
       </c>
       <c r="N4">
-        <v>1.073764278488292</v>
+        <v>0.8993131324624146</v>
       </c>
       <c r="O4">
-        <v>1.100000023841158</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P4">
-        <v>1.078092134544782</v>
+        <v>1.00754439640636</v>
       </c>
       <c r="Q4">
-        <v>30.54895474277178</v>
+        <v>30.48183270043303</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999946</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S4">
-        <v>149.063551183147</v>
+        <v>140.283523874082</v>
       </c>
       <c r="T4">
-        <v>1.604546852214283</v>
+        <v>1.354590696141221</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023827544</v>
+        <v>0.8993131324654359</v>
       </c>
       <c r="O5">
-        <v>1.100000023841033</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P5">
-        <v>1.100000023838544</v>
+        <v>1.007544396404445</v>
       </c>
       <c r="Q5">
-        <v>29.99999999974282</v>
+        <v>30.48183270063193</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999656</v>
       </c>
       <c r="S5">
-        <v>149.9999999992575</v>
+        <v>140.2835238743037</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023827544</v>
+        <v>0.8993131324654358</v>
       </c>
       <c r="O6">
-        <v>1.100000023841033</v>
+        <v>1.100000023845164</v>
       </c>
       <c r="P6">
-        <v>1.100000023838544</v>
+        <v>1.007544396404445</v>
       </c>
       <c r="Q6">
-        <v>29.99999999974282</v>
+        <v>30.48183270063194</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999656</v>
       </c>
       <c r="S6">
-        <v>149.9999999992575</v>
+        <v>140.2835238743037</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9701284557398246</v>
+        <v>0.9028326587833732</v>
       </c>
       <c r="O2">
-        <v>0.9999999999984606</v>
+        <v>0.9999999999953423</v>
       </c>
       <c r="P2">
-        <v>0.9872613523958764</v>
+        <v>0.9626941529704612</v>
       </c>
       <c r="Q2">
-        <v>29.8751350097664</v>
+        <v>29.46991355217288</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999896</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.4370022449748</v>
+        <v>144.7337965372936</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8563712960285288</v>
+        <v>0.5363499856580268</v>
       </c>
       <c r="O3">
-        <v>0.9999999999994836</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P3">
-        <v>0.9528282048946231</v>
+        <v>0.9313780817015817</v>
       </c>
       <c r="Q3">
-        <v>28.81413212758866</v>
+        <v>23.06203797024832</v>
       </c>
       <c r="R3">
-        <v>-90.00000000001212</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S3">
-        <v>141.9515065693041</v>
+        <v>121.9949494734441</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>7.591035404809599</v>
+        <v>3.902567407462481</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>87.65372668789605</v>
+        <v>45.06296686458246</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5121,43 +5121,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.551638344487445</v>
+        <v>3.551638344487452</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262986</v>
+        <v>0.7246530378262166</v>
       </c>
       <c r="J4">
-        <v>0.4078030599361481</v>
+        <v>1.113751880274868</v>
       </c>
       <c r="K4">
-        <v>0.2994698560631504</v>
+        <v>3.006397543745611</v>
       </c>
       <c r="L4">
-        <v>0.4078030599392123</v>
+        <v>1.113751880233258</v>
       </c>
       <c r="M4">
-        <v>0.299469856063705</v>
+        <v>3.006397543745376</v>
       </c>
       <c r="N4">
-        <v>0.8119879298661645</v>
+        <v>0.3976035367747503</v>
       </c>
       <c r="O4">
-        <v>0.9999999999992126</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P4">
-        <v>0.887182788125747</v>
+        <v>0.7694482201421928</v>
       </c>
       <c r="Q4">
-        <v>32.48617564125077</v>
+        <v>45.38254385680951</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000119</v>
+        <v>-89.99999999999702</v>
       </c>
       <c r="S4">
-        <v>140.5362474113457</v>
+        <v>111.2809607241676</v>
       </c>
       <c r="T4">
-        <v>7.591035404809599</v>
+        <v>3.90256740746248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999955492</v>
+        <v>0.3976035367946172</v>
       </c>
       <c r="O5">
-        <v>0.9999999999990771</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P5">
-        <v>1.000000000020478</v>
+        <v>0.7694482201323419</v>
       </c>
       <c r="Q5">
-        <v>29.99999999714115</v>
+        <v>45.38254385708364</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999973</v>
       </c>
       <c r="S5">
-        <v>149.9999999964024</v>
+        <v>111.2809607254597</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999955492</v>
+        <v>0.3976035367946172</v>
       </c>
       <c r="O6">
-        <v>0.9999999999990771</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P6">
-        <v>1.000000000020478</v>
+        <v>0.7694482201323418</v>
       </c>
       <c r="Q6">
-        <v>29.99999999714115</v>
+        <v>45.38254385708364</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999973</v>
       </c>
       <c r="S6">
-        <v>149.9999999964024</v>
+        <v>111.2809607254597</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9701284557398246</v>
+        <v>0.9028326587833732</v>
       </c>
       <c r="O2">
-        <v>0.9999999999984606</v>
+        <v>0.9999999999953423</v>
       </c>
       <c r="P2">
-        <v>0.9872613523958764</v>
+        <v>0.9626941529704612</v>
       </c>
       <c r="Q2">
-        <v>29.8751350097664</v>
+        <v>29.46991355217288</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999896</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.4370022449748</v>
+        <v>144.7337965372936</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8563712960285288</v>
+        <v>0.5363499856580268</v>
       </c>
       <c r="O3">
-        <v>0.9999999999994836</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P3">
-        <v>0.9528282048946231</v>
+        <v>0.9313780817015817</v>
       </c>
       <c r="Q3">
-        <v>28.81413212758866</v>
+        <v>23.06203797024832</v>
       </c>
       <c r="R3">
-        <v>-90.00000000001212</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S3">
-        <v>141.9515065693041</v>
+        <v>121.9949494734441</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5488,7 +5488,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>7.591035404809599</v>
+        <v>3.902567407462481</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>87.65372668789605</v>
+        <v>45.06296686458246</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5506,43 +5506,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.551638344487445</v>
+        <v>3.551638344487452</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262986</v>
+        <v>0.7246530378262166</v>
       </c>
       <c r="J4">
-        <v>0.4078030599361481</v>
+        <v>1.113751880274868</v>
       </c>
       <c r="K4">
-        <v>0.2994698560631504</v>
+        <v>3.006397543745611</v>
       </c>
       <c r="L4">
-        <v>0.4078030599392123</v>
+        <v>1.113751880233258</v>
       </c>
       <c r="M4">
-        <v>0.299469856063705</v>
+        <v>3.006397543745376</v>
       </c>
       <c r="N4">
-        <v>0.8119879298661645</v>
+        <v>0.3976035367747503</v>
       </c>
       <c r="O4">
-        <v>0.9999999999992126</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P4">
-        <v>0.887182788125747</v>
+        <v>0.7694482201421928</v>
       </c>
       <c r="Q4">
-        <v>32.48617564125077</v>
+        <v>45.38254385680951</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000119</v>
+        <v>-89.99999999999702</v>
       </c>
       <c r="S4">
-        <v>140.5362474113457</v>
+        <v>111.2809607241676</v>
       </c>
       <c r="T4">
-        <v>7.591035404809599</v>
+        <v>3.90256740746248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999955492</v>
+        <v>0.3976035367946172</v>
       </c>
       <c r="O5">
-        <v>0.9999999999990771</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P5">
-        <v>1.000000000020478</v>
+        <v>0.7694482201323419</v>
       </c>
       <c r="Q5">
-        <v>29.99999999714115</v>
+        <v>45.38254385708364</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999973</v>
       </c>
       <c r="S5">
-        <v>149.9999999964024</v>
+        <v>111.2809607254597</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999955492</v>
+        <v>0.3976035367946172</v>
       </c>
       <c r="O6">
-        <v>0.9999999999990771</v>
+        <v>1.00000000000032</v>
       </c>
       <c r="P6">
-        <v>1.000000000020478</v>
+        <v>0.7694482201323418</v>
       </c>
       <c r="Q6">
-        <v>29.99999999714115</v>
+        <v>45.38254385708364</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.9999999999973</v>
       </c>
       <c r="S6">
-        <v>149.9999999964024</v>
+        <v>111.2809607254597</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949065075629351</v>
+        <v>0.9714894419843784</v>
       </c>
       <c r="O2">
-        <v>0.9999999999997956</v>
+        <v>0.9999999999985384</v>
       </c>
       <c r="P2">
-        <v>0.9959206504058759</v>
+        <v>0.9895711899749619</v>
       </c>
       <c r="Q2">
-        <v>30.10227738871918</v>
+        <v>29.76366881512977</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999834</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.7972349075094</v>
+        <v>148.453800399059</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9749627628767567</v>
+        <v>0.8636183456042644</v>
       </c>
       <c r="O3">
-        <v>0.9999999999997158</v>
+        <v>0.9999999999999916</v>
       </c>
       <c r="P3">
-        <v>0.9813113124072433</v>
+        <v>0.9636262065017434</v>
       </c>
       <c r="Q3">
-        <v>30.42904142457119</v>
+        <v>28.23968561661015</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000747</v>
+        <v>-89.99999999999655</v>
       </c>
       <c r="S3">
-        <v>148.9456917009257</v>
+        <v>142.1430813749406</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.367651427339452</v>
+        <v>1.151958685387574</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.79227839464017</v>
+        <v>13.30167314207686</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5891,43 +5891,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.551638344487445</v>
+        <v>3.551638344487452</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262986</v>
+        <v>0.7246530378262166</v>
       </c>
       <c r="J4">
-        <v>0.4078030599361481</v>
+        <v>1.113751880274868</v>
       </c>
       <c r="K4">
-        <v>0.2994698560631504</v>
+        <v>3.006397543745611</v>
       </c>
       <c r="L4">
-        <v>0.4078030599392123</v>
+        <v>1.113751880233258</v>
       </c>
       <c r="M4">
-        <v>0.299469856063705</v>
+        <v>3.006397543745376</v>
       </c>
       <c r="N4">
-        <v>0.9714519175636924</v>
+        <v>0.8168453072499235</v>
       </c>
       <c r="O4">
-        <v>0.9999999999995201</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P4">
-        <v>0.9690675402581644</v>
+        <v>0.9021094454740588</v>
       </c>
       <c r="Q4">
-        <v>31.13624959024775</v>
+        <v>31.49316412544033</v>
       </c>
       <c r="R4">
-        <v>-90</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S4">
-        <v>149.0979068769133</v>
+        <v>140.5435759540181</v>
       </c>
       <c r="T4">
-        <v>1.367651427339452</v>
+        <v>1.151958685387573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999886588</v>
+        <v>0.8168453072553685</v>
       </c>
       <c r="O5">
-        <v>0.9999999999994221</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P5">
-        <v>0.9999999999985036</v>
+        <v>0.9021094454737091</v>
       </c>
       <c r="Q5">
-        <v>29.9999999997035</v>
+        <v>31.49316412559809</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999666</v>
       </c>
       <c r="S5">
-        <v>149.9999999993122</v>
+        <v>140.5435759543916</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999886588</v>
+        <v>0.8168453072553685</v>
       </c>
       <c r="O6">
-        <v>0.9999999999994221</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P6">
-        <v>0.9999999999985036</v>
+        <v>0.9021094454737091</v>
       </c>
       <c r="Q6">
-        <v>29.9999999997035</v>
+        <v>31.49316412559809</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999666</v>
       </c>
       <c r="S6">
-        <v>149.9999999993122</v>
+        <v>140.5435759543916</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949065075629351</v>
+        <v>0.9714894419843784</v>
       </c>
       <c r="O2">
-        <v>0.9999999999997956</v>
+        <v>0.9999999999985384</v>
       </c>
       <c r="P2">
-        <v>0.9959206504058759</v>
+        <v>0.9895711899749619</v>
       </c>
       <c r="Q2">
-        <v>30.10227738871918</v>
+        <v>29.76366881512977</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999834</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.7972349075094</v>
+        <v>148.453800399059</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9749627628767567</v>
+        <v>0.8636183456042644</v>
       </c>
       <c r="O3">
-        <v>0.9999999999997158</v>
+        <v>0.9999999999999916</v>
       </c>
       <c r="P3">
-        <v>0.9813113124072433</v>
+        <v>0.9636262065017434</v>
       </c>
       <c r="Q3">
-        <v>30.42904142457119</v>
+        <v>28.23968561661015</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000747</v>
+        <v>-89.99999999999655</v>
       </c>
       <c r="S3">
-        <v>148.9456917009257</v>
+        <v>142.1430813749406</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.367651427339452</v>
+        <v>1.151958685387574</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.79227839464017</v>
+        <v>13.30167314207686</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6276,43 +6276,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.551638344487445</v>
+        <v>3.551638344487452</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262986</v>
+        <v>0.7246530378262166</v>
       </c>
       <c r="J4">
-        <v>0.4078030599361481</v>
+        <v>1.113751880274868</v>
       </c>
       <c r="K4">
-        <v>0.2994698560631504</v>
+        <v>3.006397543745611</v>
       </c>
       <c r="L4">
-        <v>0.4078030599392123</v>
+        <v>1.113751880233258</v>
       </c>
       <c r="M4">
-        <v>0.299469856063705</v>
+        <v>3.006397543745376</v>
       </c>
       <c r="N4">
-        <v>0.9714519175636924</v>
+        <v>0.8168453072499235</v>
       </c>
       <c r="O4">
-        <v>0.9999999999995201</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P4">
-        <v>0.9690675402581644</v>
+        <v>0.9021094454740588</v>
       </c>
       <c r="Q4">
-        <v>31.13624959024775</v>
+        <v>31.49316412544033</v>
       </c>
       <c r="R4">
-        <v>-90</v>
+        <v>-89.99999999999658</v>
       </c>
       <c r="S4">
-        <v>149.0979068769133</v>
+        <v>140.5435759540181</v>
       </c>
       <c r="T4">
-        <v>1.367651427339452</v>
+        <v>1.151958685387573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999886588</v>
+        <v>0.8168453072553685</v>
       </c>
       <c r="O5">
-        <v>0.9999999999994221</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P5">
-        <v>0.9999999999985036</v>
+        <v>0.9021094454737091</v>
       </c>
       <c r="Q5">
-        <v>29.9999999997035</v>
+        <v>31.49316412559809</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999666</v>
       </c>
       <c r="S5">
-        <v>149.9999999993122</v>
+        <v>140.5435759543916</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999886588</v>
+        <v>0.8168453072553685</v>
       </c>
       <c r="O6">
-        <v>0.9999999999994221</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="P6">
-        <v>0.9999999999985036</v>
+        <v>0.9021094454737091</v>
       </c>
       <c r="Q6">
-        <v>29.9999999997035</v>
+        <v>31.49316412559809</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999666</v>
       </c>
       <c r="S6">
-        <v>149.9999999993122</v>
+        <v>140.5435759543916</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.058621281234367</v>
+        <v>1.003771146437942</v>
       </c>
       <c r="O2">
-        <v>0.9380319009576273</v>
+        <v>0.9380319009600877</v>
       </c>
       <c r="P2">
-        <v>1.047898941557878</v>
+        <v>1.027066586988846</v>
       </c>
       <c r="Q2">
-        <v>25.89722486501227</v>
+        <v>25.10974688705308</v>
       </c>
       <c r="R2">
-        <v>-91.13019952208252</v>
+        <v>-91.1301995219643</v>
       </c>
       <c r="S2">
-        <v>153.0152357586409</v>
+        <v>150.105434766502</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9795458200987738</v>
+        <v>0.7662234980466636</v>
       </c>
       <c r="O3">
-        <v>0.2917056037534474</v>
+        <v>0.291705603751568</v>
       </c>
       <c r="P3">
-        <v>0.84926539218286</v>
+        <v>0.7170203818791414</v>
       </c>
       <c r="Q3">
-        <v>5.287483966460715</v>
+        <v>-8.463037977617265</v>
       </c>
       <c r="R3">
-        <v>-119.1713773561578</v>
+        <v>-119.1713773541731</v>
       </c>
       <c r="S3">
-        <v>168.8355783310216</v>
+        <v>149.1694533067009</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6646,58 +6646,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>33.57818293747791</v>
+        <v>5.978372114037346</v>
       </c>
       <c r="D4">
-        <v>29.44496471876575</v>
+        <v>3.316348281737779</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>387.7274591570275</v>
+        <v>69.03229498710428</v>
       </c>
       <c r="G4">
-        <v>340.0011661331689</v>
+        <v>38.29389146375719</v>
       </c>
       <c r="H4">
-        <v>1.849825689567638</v>
+        <v>1.849825689567629</v>
       </c>
       <c r="I4">
-        <v>0.732530936575767</v>
+        <v>0.732530936575931</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802832</v>
+        <v>0.6277319163571242</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680181</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834054</v>
+        <v>0.6277319163639643</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738893</v>
+        <v>2.89843869796001</v>
       </c>
       <c r="N4">
-        <v>0.8843149431187631</v>
+        <v>0.6168272759030892</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8843149431132367</v>
+        <v>0.6168272759106725</v>
       </c>
       <c r="Q4">
-        <v>-2.374743779386538</v>
+        <v>-23.63454170168723</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>177.6252562207854</v>
+        <v>156.3654582984636</v>
       </c>
       <c r="T4">
-        <v>8.889432008443389</v>
+        <v>6.200555778018472</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002387148</v>
+        <v>0.6168272758892138</v>
       </c>
       <c r="O5">
-        <v>1.100000023427261</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023588324</v>
+        <v>0.6168272759194589</v>
       </c>
       <c r="Q5">
-        <v>29.99999998440202</v>
+        <v>-23.63454170045769</v>
       </c>
       <c r="R5">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000025994</v>
+        <v>156.3654582990194</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002387148</v>
+        <v>0.6168272758892138</v>
       </c>
       <c r="O6">
-        <v>1.100000023427261</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023588324</v>
+        <v>0.6168272759194587</v>
       </c>
       <c r="Q6">
-        <v>29.99999998440202</v>
+        <v>-23.63454170045769</v>
       </c>
       <c r="R6">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000025994</v>
+        <v>156.3654582990194</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.058621281234367</v>
+        <v>1.003771146437942</v>
       </c>
       <c r="O2">
-        <v>0.9380319009576273</v>
+        <v>0.9380319009600877</v>
       </c>
       <c r="P2">
-        <v>1.047898941557878</v>
+        <v>1.027066586988846</v>
       </c>
       <c r="Q2">
-        <v>25.89722486501227</v>
+        <v>25.10974688705308</v>
       </c>
       <c r="R2">
-        <v>-91.13019952208252</v>
+        <v>-91.1301995219643</v>
       </c>
       <c r="S2">
-        <v>153.0152357586409</v>
+        <v>150.105434766502</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9795458200987738</v>
+        <v>0.7662234980466636</v>
       </c>
       <c r="O3">
-        <v>0.2917056037534474</v>
+        <v>0.291705603751568</v>
       </c>
       <c r="P3">
-        <v>0.84926539218286</v>
+        <v>0.7170203818791414</v>
       </c>
       <c r="Q3">
-        <v>5.287483966460715</v>
+        <v>-8.463037977617265</v>
       </c>
       <c r="R3">
-        <v>-119.1713773561578</v>
+        <v>-119.1713773541731</v>
       </c>
       <c r="S3">
-        <v>168.8355783310216</v>
+        <v>149.1694533067009</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7031,58 +7031,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>33.57818293747791</v>
+        <v>5.978372114037346</v>
       </c>
       <c r="D4">
-        <v>29.44496471876575</v>
+        <v>3.316348281737779</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>387.7274591570275</v>
+        <v>69.03229498710428</v>
       </c>
       <c r="G4">
-        <v>340.0011661331689</v>
+        <v>38.29389146375719</v>
       </c>
       <c r="H4">
-        <v>1.849825689567638</v>
+        <v>1.849825689567629</v>
       </c>
       <c r="I4">
-        <v>0.732530936575767</v>
+        <v>0.732530936575931</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802832</v>
+        <v>0.6277319163571242</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680181</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834054</v>
+        <v>0.6277319163639643</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738893</v>
+        <v>2.89843869796001</v>
       </c>
       <c r="N4">
-        <v>0.8843149431187631</v>
+        <v>0.6168272759030892</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8843149431132367</v>
+        <v>0.6168272759106725</v>
       </c>
       <c r="Q4">
-        <v>-2.374743779386538</v>
+        <v>-23.63454170168723</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>177.6252562207854</v>
+        <v>156.3654582984636</v>
       </c>
       <c r="T4">
-        <v>8.889432008443389</v>
+        <v>6.200555778018472</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002387148</v>
+        <v>0.6168272758892138</v>
       </c>
       <c r="O5">
-        <v>1.100000023427261</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023588324</v>
+        <v>0.6168272759194589</v>
       </c>
       <c r="Q5">
-        <v>29.99999998440202</v>
+        <v>-23.63454170045769</v>
       </c>
       <c r="R5">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000025994</v>
+        <v>156.3654582990194</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002387148</v>
+        <v>0.6168272758892138</v>
       </c>
       <c r="O6">
-        <v>1.100000023427261</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023588324</v>
+        <v>0.6168272759194587</v>
       </c>
       <c r="Q6">
-        <v>29.99999998440202</v>
+        <v>-23.63454170045769</v>
       </c>
       <c r="R6">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000025994</v>
+        <v>156.3654582990194</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.096963023349297</v>
+        <v>1.085119466026329</v>
       </c>
       <c r="O2">
-        <v>1.092464912624874</v>
+        <v>1.056966443490433</v>
       </c>
       <c r="P2">
-        <v>1.096012558658065</v>
+        <v>1.073012604801041</v>
       </c>
       <c r="Q2">
-        <v>29.82990054509916</v>
+        <v>28.55247409146676</v>
       </c>
       <c r="R2">
-        <v>-90.0920213042705</v>
+        <v>-91.34292556127178</v>
       </c>
       <c r="S2">
-        <v>150.0725021364624</v>
+        <v>149.9060870231489</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.085101068434687</v>
+        <v>1.038372779870299</v>
       </c>
       <c r="O3">
-        <v>1.061021327659622</v>
+        <v>0.8910570420401244</v>
       </c>
       <c r="P3">
-        <v>1.078713534910298</v>
+        <v>0.9590851853277239</v>
       </c>
       <c r="Q3">
-        <v>29.05335469915065</v>
+        <v>21.80527961679277</v>
       </c>
       <c r="R3">
-        <v>-90.61025236802486</v>
+        <v>-99.16867920487201</v>
       </c>
       <c r="S3">
-        <v>150.3273785501559</v>
+        <v>149.0000007596288</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7416,58 +7416,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.70739274386115</v>
+        <v>1.425313463171979</v>
       </c>
       <c r="D4">
-        <v>1.617855060282567</v>
+        <v>1.229368488193132</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.71527320561297</v>
+        <v>16.4581022328388</v>
       </c>
       <c r="G4">
-        <v>18.68138109127877</v>
+        <v>14.19552455183096</v>
       </c>
       <c r="H4">
-        <v>1.849825689567638</v>
+        <v>1.849825689567629</v>
       </c>
       <c r="I4">
-        <v>0.732530936575767</v>
+        <v>0.732530936575931</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802832</v>
+        <v>0.6277319163571242</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680181</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834054</v>
+        <v>0.6277319163639643</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738893</v>
+        <v>2.89843869796001</v>
       </c>
       <c r="N4">
-        <v>1.077317737880303</v>
+        <v>0.9920972039485564</v>
       </c>
       <c r="O4">
-        <v>1.048207173903643</v>
+        <v>0.8020156209381427</v>
       </c>
       <c r="P4">
-        <v>1.074422137823873</v>
+        <v>0.9179643930775101</v>
       </c>
       <c r="Q4">
-        <v>28.9636965318363</v>
+        <v>20.02025408702196</v>
       </c>
       <c r="R4">
-        <v>-90.32747358826397</v>
+        <v>-99.52967390013555</v>
       </c>
       <c r="S4">
-        <v>150.6578079011808</v>
+        <v>150.5520691986205</v>
       </c>
       <c r="T4">
-        <v>1.508437509592413</v>
+        <v>1.392802299785661</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023839176</v>
+        <v>0.9920972039467663</v>
       </c>
       <c r="O5">
-        <v>1.100000023823591</v>
+        <v>0.8020156209392317</v>
       </c>
       <c r="P5">
-        <v>1.100000023827411</v>
+        <v>0.9179643930802834</v>
       </c>
       <c r="Q5">
-        <v>29.99999999921113</v>
+        <v>20.02025408726496</v>
       </c>
       <c r="R5">
-        <v>-90.00000000102297</v>
+        <v>-99.52967389962161</v>
       </c>
       <c r="S5">
-        <v>149.9999999997898</v>
+        <v>150.5520691987953</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023839176</v>
+        <v>0.9920972039467663</v>
       </c>
       <c r="O6">
-        <v>1.100000023823591</v>
+        <v>0.8020156209392317</v>
       </c>
       <c r="P6">
-        <v>1.100000023827411</v>
+        <v>0.9179643930802834</v>
       </c>
       <c r="Q6">
-        <v>29.99999999921113</v>
+        <v>20.02025408726496</v>
       </c>
       <c r="R6">
-        <v>-90.00000000102297</v>
+        <v>-99.52967389962161</v>
       </c>
       <c r="S6">
-        <v>149.9999999997898</v>
+        <v>150.5520691987953</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.096963023349297</v>
+        <v>1.085119466026329</v>
       </c>
       <c r="O2">
-        <v>1.092464912624874</v>
+        <v>1.056966443490433</v>
       </c>
       <c r="P2">
-        <v>1.096012558658065</v>
+        <v>1.073012604801041</v>
       </c>
       <c r="Q2">
-        <v>29.82990054509916</v>
+        <v>28.55247409146676</v>
       </c>
       <c r="R2">
-        <v>-90.0920213042705</v>
+        <v>-91.34292556127178</v>
       </c>
       <c r="S2">
-        <v>150.0725021364624</v>
+        <v>149.9060870231489</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.085101068434687</v>
+        <v>1.038372779870299</v>
       </c>
       <c r="O3">
-        <v>1.061021327659622</v>
+        <v>0.8910570420401244</v>
       </c>
       <c r="P3">
-        <v>1.078713534910298</v>
+        <v>0.9590851853277239</v>
       </c>
       <c r="Q3">
-        <v>29.05335469915065</v>
+        <v>21.80527961679277</v>
       </c>
       <c r="R3">
-        <v>-90.61025236802486</v>
+        <v>-99.16867920487201</v>
       </c>
       <c r="S3">
-        <v>150.3273785501559</v>
+        <v>149.0000007596288</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7801,58 +7801,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.70739274386115</v>
+        <v>1.425313463171979</v>
       </c>
       <c r="D4">
-        <v>1.617855060282567</v>
+        <v>1.229368488193132</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.71527320561297</v>
+        <v>16.4581022328388</v>
       </c>
       <c r="G4">
-        <v>18.68138109127877</v>
+        <v>14.19552455183096</v>
       </c>
       <c r="H4">
-        <v>1.849825689567638</v>
+        <v>1.849825689567629</v>
       </c>
       <c r="I4">
-        <v>0.732530936575767</v>
+        <v>0.732530936575931</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802832</v>
+        <v>0.6277319163571242</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680181</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834054</v>
+        <v>0.6277319163639643</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738893</v>
+        <v>2.89843869796001</v>
       </c>
       <c r="N4">
-        <v>1.077317737880303</v>
+        <v>0.9920972039485564</v>
       </c>
       <c r="O4">
-        <v>1.048207173903643</v>
+        <v>0.8020156209381427</v>
       </c>
       <c r="P4">
-        <v>1.074422137823873</v>
+        <v>0.9179643930775101</v>
       </c>
       <c r="Q4">
-        <v>28.9636965318363</v>
+        <v>20.02025408702196</v>
       </c>
       <c r="R4">
-        <v>-90.32747358826397</v>
+        <v>-99.52967390013555</v>
       </c>
       <c r="S4">
-        <v>150.6578079011808</v>
+        <v>150.5520691986205</v>
       </c>
       <c r="T4">
-        <v>1.508437509592413</v>
+        <v>1.392802299785661</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023839176</v>
+        <v>0.9920972039467663</v>
       </c>
       <c r="O5">
-        <v>1.100000023823591</v>
+        <v>0.8020156209392317</v>
       </c>
       <c r="P5">
-        <v>1.100000023827411</v>
+        <v>0.9179643930802834</v>
       </c>
       <c r="Q5">
-        <v>29.99999999921113</v>
+        <v>20.02025408726496</v>
       </c>
       <c r="R5">
-        <v>-90.00000000102297</v>
+        <v>-99.52967389962161</v>
       </c>
       <c r="S5">
-        <v>149.9999999997898</v>
+        <v>150.5520691987953</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023839176</v>
+        <v>0.9920972039467663</v>
       </c>
       <c r="O6">
-        <v>1.100000023823591</v>
+        <v>0.8020156209392317</v>
       </c>
       <c r="P6">
-        <v>1.100000023827411</v>
+        <v>0.9179643930802834</v>
       </c>
       <c r="Q6">
-        <v>29.99999999921113</v>
+        <v>20.02025408726496</v>
       </c>
       <c r="R6">
-        <v>-90.00000000102297</v>
+        <v>-99.52967389962161</v>
       </c>
       <c r="S6">
-        <v>149.9999999997898</v>
+        <v>150.5520691987953</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9735377779723634</v>
+        <v>0.9424522314355671</v>
       </c>
       <c r="O2">
-        <v>0.8500049525405782</v>
+        <v>0.850004952538732</v>
       </c>
       <c r="P2">
-        <v>0.9430709208326351</v>
+        <v>0.9419013291063386</v>
       </c>
       <c r="Q2">
-        <v>25.4997887920602</v>
+        <v>24.19268348627333</v>
       </c>
       <c r="R2">
-        <v>-92.65381631337881</v>
+        <v>-92.65381631332914</v>
       </c>
       <c r="S2">
-        <v>152.8749772937561</v>
+        <v>150.5659672639323</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9542453261756786</v>
+        <v>0.8654795539534915</v>
       </c>
       <c r="O3">
-        <v>0.3617201835044315</v>
+        <v>0.3617201835037249</v>
       </c>
       <c r="P3">
-        <v>0.7389570602306202</v>
+        <v>0.717362391094132</v>
       </c>
       <c r="Q3">
-        <v>6.762807848128176</v>
+        <v>-3.40066276128368</v>
       </c>
       <c r="R3">
-        <v>-129.0915432249183</v>
+        <v>-129.0915432241612</v>
       </c>
       <c r="S3">
-        <v>166.829267014812</v>
+        <v>152.4240958953725</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8186,58 +8186,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>20.75197657188305</v>
+        <v>4.558150608104192</v>
       </c>
       <c r="D4">
-        <v>18.99310347626933</v>
+        <v>2.355372012687775</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>239.6231851998697</v>
+        <v>52.63298961191624</v>
       </c>
       <c r="G4">
-        <v>219.3134680954103</v>
+        <v>27.19749331133995</v>
       </c>
       <c r="H4">
-        <v>3.551638344487421</v>
+        <v>3.551638344487405</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262993</v>
+        <v>0.7246530378264696</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376318</v>
+        <v>1.11375188024619</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581894</v>
+        <v>3.006397543768196</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391402</v>
+        <v>1.113751880233262</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637073</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>0.8141051426070108</v>
+        <v>0.6716728149593493</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8141051426024448</v>
+        <v>0.6716728149604608</v>
       </c>
       <c r="Q4">
-        <v>-1.574490728957485</v>
+        <v>-16.93689964820451</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>178.425509270945</v>
+        <v>163.0631003512648</v>
       </c>
       <c r="T4">
-        <v>4.491848404738629</v>
+        <v>3.705973963892704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000075536</v>
+        <v>0.6716728149477894</v>
       </c>
       <c r="O5">
-        <v>0.9999999998272491</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999998378094</v>
+        <v>0.6716728149724263</v>
       </c>
       <c r="Q5">
-        <v>29.99999999049979</v>
+        <v>-16.93689964647828</v>
       </c>
       <c r="R5">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999990575</v>
+        <v>163.0631003511539</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000075536</v>
+        <v>0.6716728149477894</v>
       </c>
       <c r="O6">
-        <v>0.9999999998272491</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999998378094</v>
+        <v>0.6716728149724266</v>
       </c>
       <c r="Q6">
-        <v>29.99999999049979</v>
+        <v>-16.9368996464783</v>
       </c>
       <c r="R6">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999990575</v>
+        <v>163.0631003511539</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.092464912624774</v>
+        <v>1.056966443490338</v>
       </c>
       <c r="G2">
-        <v>-0.09202130427424153</v>
+        <v>-1.342925561278413</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8440,10 +8440,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.061021327659233</v>
+        <v>0.8910570420386132</v>
       </c>
       <c r="G3">
-        <v>-0.6102523680296662</v>
+        <v>-9.16867920491115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8451,22 +8451,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.711715147193376</v>
+        <v>1.309686024696609</v>
       </c>
       <c r="C4">
-        <v>59.29555206048334</v>
+        <v>45.36885473474868</v>
       </c>
       <c r="D4">
-        <v>0.216979414382802</v>
+        <v>0.6277319163354135</v>
       </c>
       <c r="E4">
-        <v>0.2769580867739114</v>
+        <v>2.898438697960064</v>
       </c>
       <c r="F4">
-        <v>1.048207173903214</v>
+        <v>0.8020156209364411</v>
       </c>
       <c r="G4">
-        <v>45.00000000000013</v>
+        <v>45.00000000014394</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8486,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023823132</v>
+        <v>0.8020156209375303</v>
       </c>
       <c r="G5">
-        <v>-1.026611906983905E-09</v>
+        <v>-9.5296738996665</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023823132</v>
+        <v>0.8020156209375303</v>
       </c>
       <c r="G6">
-        <v>-1.026611906983905E-09</v>
+        <v>-9.5296738996665</v>
       </c>
     </row>
   </sheetData>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9735377779723634</v>
+        <v>0.9424522314355671</v>
       </c>
       <c r="O2">
-        <v>0.8500049525405782</v>
+        <v>0.850004952538732</v>
       </c>
       <c r="P2">
-        <v>0.9430709208326351</v>
+        <v>0.9419013291063386</v>
       </c>
       <c r="Q2">
-        <v>25.4997887920602</v>
+        <v>24.19268348627333</v>
       </c>
       <c r="R2">
-        <v>-92.65381631337881</v>
+        <v>-92.65381631332914</v>
       </c>
       <c r="S2">
-        <v>152.8749772937561</v>
+        <v>150.5659672639323</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9542453261756786</v>
+        <v>0.8654795539534915</v>
       </c>
       <c r="O3">
-        <v>0.3617201835044315</v>
+        <v>0.3617201835037249</v>
       </c>
       <c r="P3">
-        <v>0.7389570602306202</v>
+        <v>0.717362391094132</v>
       </c>
       <c r="Q3">
-        <v>6.762807848128176</v>
+        <v>-3.40066276128368</v>
       </c>
       <c r="R3">
-        <v>-129.0915432249183</v>
+        <v>-129.0915432241612</v>
       </c>
       <c r="S3">
-        <v>166.829267014812</v>
+        <v>152.4240958953725</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8722,58 +8722,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>20.75197657188305</v>
+        <v>4.558150608104192</v>
       </c>
       <c r="D4">
-        <v>18.99310347626933</v>
+        <v>2.355372012687775</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>239.6231851998697</v>
+        <v>52.63298961191624</v>
       </c>
       <c r="G4">
-        <v>219.3134680954103</v>
+        <v>27.19749331133995</v>
       </c>
       <c r="H4">
-        <v>3.551638344487421</v>
+        <v>3.551638344487405</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262993</v>
+        <v>0.7246530378264696</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376318</v>
+        <v>1.11375188024619</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581894</v>
+        <v>3.006397543768196</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391402</v>
+        <v>1.113751880233262</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637073</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>0.8141051426070108</v>
+        <v>0.6716728149593493</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8141051426024448</v>
+        <v>0.6716728149604608</v>
       </c>
       <c r="Q4">
-        <v>-1.574490728957485</v>
+        <v>-16.93689964820451</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>178.425509270945</v>
+        <v>163.0631003512648</v>
       </c>
       <c r="T4">
-        <v>4.491848404738629</v>
+        <v>3.705973963892704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000075536</v>
+        <v>0.6716728149477894</v>
       </c>
       <c r="O5">
-        <v>0.9999999998272491</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999998378094</v>
+        <v>0.6716728149724263</v>
       </c>
       <c r="Q5">
-        <v>29.99999999049979</v>
+        <v>-16.93689964647828</v>
       </c>
       <c r="R5">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999990575</v>
+        <v>163.0631003511539</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000075536</v>
+        <v>0.6716728149477894</v>
       </c>
       <c r="O6">
-        <v>0.9999999998272491</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999998378094</v>
+        <v>0.6716728149724266</v>
       </c>
       <c r="Q6">
-        <v>29.99999999049979</v>
+        <v>-16.9368996464783</v>
       </c>
       <c r="R6">
-        <v>-90.00000001700997</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999990575</v>
+        <v>163.0631003511539</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.995585740614731</v>
+        <v>0.9872732704743753</v>
       </c>
       <c r="O2">
-        <v>0.989646223530681</v>
+        <v>0.958104579130341</v>
       </c>
       <c r="P2">
-        <v>0.9951603274949091</v>
+        <v>0.9742986184078002</v>
       </c>
       <c r="Q2">
-        <v>29.76304891874414</v>
+        <v>28.3548522078124</v>
       </c>
       <c r="R2">
-        <v>-90.06817904278991</v>
+        <v>-91.55789971898027</v>
       </c>
       <c r="S2">
-        <v>150.1433338404499</v>
+        <v>149.8835077627428</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9798901302928671</v>
+        <v>0.9540301184162779</v>
       </c>
       <c r="O3">
-        <v>0.9503017246666995</v>
+        <v>0.8139299031203258</v>
       </c>
       <c r="P3">
-        <v>0.9760349923144055</v>
+        <v>0.8764516590625258</v>
       </c>
       <c r="Q3">
-        <v>28.77168461450956</v>
+        <v>21.54630532481583</v>
       </c>
       <c r="R3">
-        <v>-90.49996946908374</v>
+        <v>-99.65273561736731</v>
       </c>
       <c r="S3">
-        <v>150.6346915877638</v>
+        <v>148.9519453797822</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9107,58 +9107,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.531615208913041</v>
+        <v>1.249557816225953</v>
       </c>
       <c r="D4">
-        <v>1.380193875591368</v>
+        <v>1.031184646681272</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.68556906321739</v>
+        <v>14.42865083132109</v>
       </c>
       <c r="G4">
-        <v>15.93710611213098</v>
+        <v>11.90709466691283</v>
       </c>
       <c r="H4">
-        <v>3.551638344487421</v>
+        <v>3.551638344487405</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262993</v>
+        <v>0.7246530378264696</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376318</v>
+        <v>1.11375188024619</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581894</v>
+        <v>3.006397543768196</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391402</v>
+        <v>1.113751880233262</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637073</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>0.9660710651470357</v>
+        <v>0.8862366025193017</v>
       </c>
       <c r="O4">
-        <v>0.9338968266063927</v>
+        <v>0.7019303077934287</v>
       </c>
       <c r="P4">
-        <v>0.9742591513607591</v>
+        <v>0.837827820962785</v>
       </c>
       <c r="Q4">
-        <v>28.90928717015008</v>
+        <v>19.95292512464315</v>
       </c>
       <c r="R4">
-        <v>-89.42031704770154</v>
+        <v>-97.63434507042474</v>
       </c>
       <c r="S4">
-        <v>151.3693915339348</v>
+        <v>152.0042069778074</v>
       </c>
       <c r="T4">
-        <v>1.234606942640765</v>
+        <v>1.143601227408609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999991628</v>
+        <v>0.8862366025191705</v>
       </c>
       <c r="O5">
-        <v>0.9999999999852729</v>
+        <v>0.7019303077992135</v>
       </c>
       <c r="P5">
-        <v>0.9999999999882071</v>
+        <v>0.8378278209677867</v>
       </c>
       <c r="Q5">
-        <v>29.99999999923366</v>
+        <v>19.95292512505613</v>
       </c>
       <c r="R5">
-        <v>-90.00000000102682</v>
+        <v>-97.63434506974384</v>
       </c>
       <c r="S5">
-        <v>149.9999999997853</v>
+        <v>152.0042069779209</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999991628</v>
+        <v>0.8862366025191705</v>
       </c>
       <c r="O6">
-        <v>0.9999999999852729</v>
+        <v>0.7019303077992135</v>
       </c>
       <c r="P6">
-        <v>0.9999999999882071</v>
+        <v>0.8378278209677867</v>
       </c>
       <c r="Q6">
-        <v>29.99999999923366</v>
+        <v>19.95292512505613</v>
       </c>
       <c r="R6">
-        <v>-90.00000000102682</v>
+        <v>-97.63434506974384</v>
       </c>
       <c r="S6">
-        <v>149.9999999997853</v>
+        <v>152.0042069779209</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.995585740614731</v>
+        <v>0.9872732704743753</v>
       </c>
       <c r="O2">
-        <v>0.989646223530681</v>
+        <v>0.958104579130341</v>
       </c>
       <c r="P2">
-        <v>0.9951603274949091</v>
+        <v>0.9742986184078002</v>
       </c>
       <c r="Q2">
-        <v>29.76304891874414</v>
+        <v>28.3548522078124</v>
       </c>
       <c r="R2">
-        <v>-90.06817904278991</v>
+        <v>-91.55789971898027</v>
       </c>
       <c r="S2">
-        <v>150.1433338404499</v>
+        <v>149.8835077627428</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9798901302928671</v>
+        <v>0.9540301184162779</v>
       </c>
       <c r="O3">
-        <v>0.9503017246666995</v>
+        <v>0.8139299031203258</v>
       </c>
       <c r="P3">
-        <v>0.9760349923144055</v>
+        <v>0.8764516590625258</v>
       </c>
       <c r="Q3">
-        <v>28.77168461450956</v>
+        <v>21.54630532481583</v>
       </c>
       <c r="R3">
-        <v>-90.49996946908374</v>
+        <v>-99.65273561736731</v>
       </c>
       <c r="S3">
-        <v>150.6346915877638</v>
+        <v>148.9519453797822</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9492,58 +9492,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.531615208913041</v>
+        <v>1.249557816225953</v>
       </c>
       <c r="D4">
-        <v>1.380193875591368</v>
+        <v>1.031184646681272</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.68556906321739</v>
+        <v>14.42865083132109</v>
       </c>
       <c r="G4">
-        <v>15.93710611213098</v>
+        <v>11.90709466691283</v>
       </c>
       <c r="H4">
-        <v>3.551638344487421</v>
+        <v>3.551638344487405</v>
       </c>
       <c r="I4">
-        <v>0.7246530378262993</v>
+        <v>0.7246530378264696</v>
       </c>
       <c r="J4">
-        <v>0.4078030599376318</v>
+        <v>1.11375188024619</v>
       </c>
       <c r="K4">
-        <v>0.2994698560581894</v>
+        <v>3.006397543768196</v>
       </c>
       <c r="L4">
-        <v>0.4078030599391402</v>
+        <v>1.113751880233262</v>
       </c>
       <c r="M4">
-        <v>0.2994698560637073</v>
+        <v>3.006397543745579</v>
       </c>
       <c r="N4">
-        <v>0.9660710651470357</v>
+        <v>0.8862366025193017</v>
       </c>
       <c r="O4">
-        <v>0.9338968266063927</v>
+        <v>0.7019303077934287</v>
       </c>
       <c r="P4">
-        <v>0.9742591513607591</v>
+        <v>0.837827820962785</v>
       </c>
       <c r="Q4">
-        <v>28.90928717015008</v>
+        <v>19.95292512464315</v>
       </c>
       <c r="R4">
-        <v>-89.42031704770154</v>
+        <v>-97.63434507042474</v>
       </c>
       <c r="S4">
-        <v>151.3693915339348</v>
+        <v>152.0042069778074</v>
       </c>
       <c r="T4">
-        <v>1.234606942640765</v>
+        <v>1.143601227408609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999991628</v>
+        <v>0.8862366025191705</v>
       </c>
       <c r="O5">
-        <v>0.9999999999852729</v>
+        <v>0.7019303077992135</v>
       </c>
       <c r="P5">
-        <v>0.9999999999882071</v>
+        <v>0.8378278209677867</v>
       </c>
       <c r="Q5">
-        <v>29.99999999923366</v>
+        <v>19.95292512505613</v>
       </c>
       <c r="R5">
-        <v>-90.00000000102682</v>
+        <v>-97.63434506974384</v>
       </c>
       <c r="S5">
-        <v>149.9999999997853</v>
+        <v>152.0042069779209</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999991628</v>
+        <v>0.8862366025191705</v>
       </c>
       <c r="O6">
-        <v>0.9999999999852729</v>
+        <v>0.7019303077992135</v>
       </c>
       <c r="P6">
-        <v>0.9999999999882071</v>
+        <v>0.8378278209677867</v>
       </c>
       <c r="Q6">
-        <v>29.99999999923366</v>
+        <v>19.95292512505613</v>
       </c>
       <c r="R6">
-        <v>-90.00000000102682</v>
+        <v>-97.63434506974384</v>
       </c>
       <c r="S6">
-        <v>149.9999999997853</v>
+        <v>152.0042069779209</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9723,10 +9723,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.092464912624774</v>
+        <v>1.056966443490338</v>
       </c>
       <c r="G2">
-        <v>-0.09202130427424153</v>
+        <v>-1.342925561278413</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.061021327659233</v>
+        <v>0.8910570420386132</v>
       </c>
       <c r="G3">
-        <v>-0.6102523680296662</v>
+        <v>-9.16867920491115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9757,22 +9757,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.711715147193376</v>
+        <v>1.309686024696609</v>
       </c>
       <c r="C4">
-        <v>59.29555206048334</v>
+        <v>45.36885473474868</v>
       </c>
       <c r="D4">
-        <v>0.216979414382802</v>
+        <v>0.6277319163354135</v>
       </c>
       <c r="E4">
-        <v>0.2769580867739114</v>
+        <v>2.898438697960064</v>
       </c>
       <c r="F4">
-        <v>1.048207173903214</v>
+        <v>0.8020156209364411</v>
       </c>
       <c r="G4">
-        <v>45.00000000000013</v>
+        <v>45.00000000014394</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9792,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023823132</v>
+        <v>0.8020156209375303</v>
       </c>
       <c r="G5">
-        <v>-1.026611906983905E-09</v>
+        <v>-9.5296738996665</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023823132</v>
+        <v>0.8020156209375303</v>
       </c>
       <c r="G6">
-        <v>-1.026611906983905E-09</v>
+        <v>-9.5296738996665</v>
       </c>
     </row>
   </sheetData>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.850004952529848</v>
+        <v>0.850004952531329</v>
       </c>
       <c r="G2">
-        <v>-2.653816313383118</v>
+        <v>-2.653816313408794</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9897,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.361720183494426</v>
+        <v>0.3617201835011323</v>
       </c>
       <c r="G3">
-        <v>-39.09154322576343</v>
+        <v>-39.09154322526825</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9908,22 +9908,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>22.82241822205426</v>
+        <v>3.601610081969431</v>
       </c>
       <c r="C4">
-        <v>790.5917582436749</v>
+        <v>124.7634330204672</v>
       </c>
       <c r="D4">
-        <v>0.407803059938763</v>
+        <v>1.113751880252866</v>
       </c>
       <c r="E4">
-        <v>0.2994698560633461</v>
+        <v>3.006397543745608</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>36.29166987222217</v>
+        <v>69.67231643316967</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9943,10 +9943,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999998149219</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.701360595450855E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999998149219</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.701360595450855E-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10025,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.850004952529848</v>
+        <v>0.850004952531329</v>
       </c>
       <c r="G2">
-        <v>-2.653816313383118</v>
+        <v>-2.653816313408794</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.361720183494426</v>
+        <v>0.3617201835011323</v>
       </c>
       <c r="G3">
-        <v>-39.09154322576343</v>
+        <v>-39.09154322526825</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10059,22 +10059,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>22.82241822205426</v>
+        <v>3.601610081969431</v>
       </c>
       <c r="C4">
-        <v>790.5917582436749</v>
+        <v>124.7634330204672</v>
       </c>
       <c r="D4">
-        <v>0.407803059938763</v>
+        <v>1.113751880252866</v>
       </c>
       <c r="E4">
-        <v>0.2994698560633461</v>
+        <v>3.006397543745608</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>36.29166987222217</v>
+        <v>69.67231643316967</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10094,10 +10094,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999998149219</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.701360595450855E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999998149219</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.701360595450855E-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10176,10 +10176,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9896462235301428</v>
+        <v>0.9581045791269167</v>
       </c>
       <c r="G2">
-        <v>-0.06817904279359996</v>
+        <v>-1.557899718992042</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9503017246662551</v>
+        <v>0.8139299031165271</v>
       </c>
       <c r="G3">
-        <v>-0.4999694690879498</v>
+        <v>-9.652735617430418</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10210,22 +10210,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.525047131727278</v>
+        <v>1.146247392719871</v>
       </c>
       <c r="C4">
-        <v>52.82918232177664</v>
+        <v>39.70717444468345</v>
       </c>
       <c r="D4">
-        <v>0.407803059938763</v>
+        <v>1.113751880252866</v>
       </c>
       <c r="E4">
-        <v>0.2994698560633461</v>
+        <v>3.006397543745608</v>
       </c>
       <c r="F4">
-        <v>0.9338968266059345</v>
+        <v>0.7019303077896065</v>
       </c>
       <c r="G4">
-        <v>44.99999999999578</v>
+        <v>44.99999999986812</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10245,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999847977</v>
+        <v>0.7019303077953915</v>
       </c>
       <c r="G5">
-        <v>-1.030471009927051E-09</v>
+        <v>-7.63434506981847</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999847977</v>
+        <v>0.7019303077953915</v>
       </c>
       <c r="G6">
-        <v>-1.030471009927052E-09</v>
+        <v>-7.63434506981847</v>
       </c>
     </row>
   </sheetData>
@@ -10327,10 +10327,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9896462235301428</v>
+        <v>0.9581045791269167</v>
       </c>
       <c r="G2">
-        <v>-0.06817904279359996</v>
+        <v>-1.557899718992042</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10350,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9503017246662551</v>
+        <v>0.8139299031165271</v>
       </c>
       <c r="G3">
-        <v>-0.4999694690879498</v>
+        <v>-9.652735617430418</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10361,22 +10361,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.525047131727278</v>
+        <v>1.146247392719871</v>
       </c>
       <c r="C4">
-        <v>52.82918232177664</v>
+        <v>39.70717444468345</v>
       </c>
       <c r="D4">
-        <v>0.407803059938763</v>
+        <v>1.113751880252866</v>
       </c>
       <c r="E4">
-        <v>0.2994698560633461</v>
+        <v>3.006397543745608</v>
       </c>
       <c r="F4">
-        <v>0.9338968266059345</v>
+        <v>0.7019303077896065</v>
       </c>
       <c r="G4">
-        <v>44.99999999999578</v>
+        <v>44.99999999986812</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10396,10 +10396,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999847977</v>
+        <v>0.7019303077953915</v>
       </c>
       <c r="G5">
-        <v>-1.030471009927051E-09</v>
+        <v>-7.63434506981847</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999847977</v>
+        <v>0.7019303077953915</v>
       </c>
       <c r="G6">
-        <v>-1.030471009927052E-09</v>
+        <v>-7.63434506981847</v>
       </c>
     </row>
   </sheetData>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.070094227534568</v>
+        <v>1.070094227532346</v>
       </c>
       <c r="O2">
-        <v>0.9380319009576223</v>
+        <v>0.9380319009574459</v>
       </c>
       <c r="P2">
-        <v>1.053494350469732</v>
+        <v>1.053494350468705</v>
       </c>
       <c r="Q2">
-        <v>25.98965116736209</v>
+        <v>25.98965116739708</v>
       </c>
       <c r="R2">
-        <v>-91.13019952207824</v>
+        <v>-91.13019952201601</v>
       </c>
       <c r="S2">
-        <v>153.5693903185904</v>
+        <v>153.5693903185486</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.031611214682102</v>
+        <v>1.031611214669993</v>
       </c>
       <c r="O3">
-        <v>0.2917056037548506</v>
+        <v>0.2917056037512943</v>
       </c>
       <c r="P3">
-        <v>0.8906876332707027</v>
+        <v>0.8906876332644384</v>
       </c>
       <c r="Q3">
-        <v>7.091324389127895</v>
+        <v>7.091324389062571</v>
       </c>
       <c r="R3">
-        <v>-119.171377355886</v>
+        <v>-119.1713773550799</v>
       </c>
       <c r="S3">
-        <v>171.779472772821</v>
+        <v>171.7794727726615</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10623,55 +10623,55 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>31.26491097024306</v>
+        <v>3.709154423937068</v>
       </c>
       <c r="D4">
-        <v>31.26491097024306</v>
+        <v>3.709154423937068</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>361.0160952971904</v>
+        <v>42.82962610251915</v>
       </c>
       <c r="G4">
-        <v>361.0160952971904</v>
+        <v>42.82962610251915</v>
       </c>
       <c r="H4">
-        <v>1.849825689567638</v>
+        <v>1.849825689567629</v>
       </c>
       <c r="I4">
-        <v>0.732530936575767</v>
+        <v>0.732530936575931</v>
       </c>
       <c r="J4">
-        <v>0.2169794143802832</v>
+        <v>0.6277319163571242</v>
       </c>
       <c r="K4">
-        <v>0.2769580867680181</v>
+        <v>2.898438697948321</v>
       </c>
       <c r="L4">
-        <v>0.2169794143834054</v>
+        <v>0.6277319163639643</v>
       </c>
       <c r="M4">
-        <v>0.2769580867738893</v>
+        <v>2.89843869796001</v>
       </c>
       <c r="N4">
-        <v>0.9526279648187987</v>
+        <v>0.9526279648032093</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648133816</v>
+        <v>0.9526279648047558</v>
       </c>
       <c r="Q4">
-        <v>3.814838422852569E-11</v>
+        <v>-1.248114331727743E-11</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999999999466</v>
+        <v>-179.9999999999812</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023905193</v>
+        <v>0.9526279647942855</v>
       </c>
       <c r="O5">
-        <v>1.100000023430216</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023584827</v>
+        <v>0.9526279648136793</v>
       </c>
       <c r="Q5">
-        <v>29.99999998571504</v>
+        <v>4.605593154684335E-10</v>
       </c>
       <c r="R5">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000046434</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023905193</v>
+        <v>0.9526279647942855</v>
       </c>
       <c r="O6">
-        <v>1.100000023430216</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023584827</v>
+        <v>0.9526279648136793</v>
       </c>
       <c r="Q6">
-        <v>29.99999998571504</v>
+        <v>4.605749183559953E-10</v>
       </c>
       <c r="R6">
-        <v>-90.00000001926479</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000046434</v>
+        <v>179.9999999995312</v>
       </c>
     </row>
   </sheetData>
